--- a/excel/projects/Balaji Fast Food Sales2.xlsx
+++ b/excel/projects/Balaji Fast Food Sales2.xlsx
@@ -1,34 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tejal\OneDrive\Desktop\Data Science\IIDST Asgnmt\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\data_science_\excel\projects\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFE40FC1-ADFA-4595-8284-BE5F18B76308}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{E47E19AD-F643-4F0B-A808-B62BD2A3F686}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8904" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Dashboard" sheetId="3" r:id="rId1"/>
-    <sheet name="Pivot Table" sheetId="2" r:id="rId2"/>
-    <sheet name="Balaji Fast Food Sales" sheetId="1" r:id="rId3"/>
+    <sheet name="Balaji Fast Food Sales" sheetId="1" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="Slicer_Item_Name">#N/A</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
-  <pivotCaches>
-    <pivotCache cacheId="2" r:id="rId4"/>
-  </pivotCaches>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{876F7934-8845-4945-9796-88D515C7AA90}">
+      <x14:pivotCaches>
+        <pivotCache cacheId="3" r:id="rId3"/>
+      </x14:pivotCaches>
+    </ext>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{BBE1A952-AA13-448e-AADC-164F8A28A991}">
       <x14:slicerCaches>
-        <x14:slicerCache r:id="rId5"/>
+        <x14:slicerCache r:id="rId4"/>
       </x14:slicerCaches>
     </ext>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
@@ -48,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5667" uniqueCount="263">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5611" uniqueCount="244">
   <si>
     <t>order_id</t>
   </si>
@@ -776,64 +775,7 @@
     <t>Gender</t>
   </si>
   <si>
-    <t>Row Labels</t>
-  </si>
-  <si>
-    <t>Grand Total</t>
-  </si>
-  <si>
-    <t>Sum of transaction_amount</t>
-  </si>
-  <si>
-    <t>May</t>
-  </si>
-  <si>
     <t>Year</t>
-  </si>
-  <si>
-    <t>2023</t>
-  </si>
-  <si>
-    <t>2022</t>
-  </si>
-  <si>
-    <t>Female</t>
-  </si>
-  <si>
-    <t>Male</t>
-  </si>
-  <si>
-    <t>Jul</t>
-  </si>
-  <si>
-    <t>Aug</t>
-  </si>
-  <si>
-    <t>Nov</t>
-  </si>
-  <si>
-    <t>Oct</t>
-  </si>
-  <si>
-    <t>Dec</t>
-  </si>
-  <si>
-    <t>Jun</t>
-  </si>
-  <si>
-    <t>Sep</t>
-  </si>
-  <si>
-    <t>Apr</t>
-  </si>
-  <si>
-    <t>Feb</t>
-  </si>
-  <si>
-    <t>Jan</t>
-  </si>
-  <si>
-    <t>Mar</t>
   </si>
   <si>
     <t>Item Name</t>
@@ -842,7 +784,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1332,18 +1274,10 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="42">
@@ -1398,7 +1332,7 @@
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
+      <numFmt numFmtId="164" formatCode="dd/mm/yyyy"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1432,10 +1366,6 @@
       <c:style val="2"/>
     </mc:Fallback>
   </mc:AlternateContent>
-  <c:pivotSource>
-    <c:name>[Balaji Fast Food Sales2.xlsx]Pivot Table!PivotTable2</c:name>
-    <c:fmtId val="3"/>
-  </c:pivotSource>
   <c:chart>
     <c:title>
       <c:tx>
@@ -1465,6 +1395,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1695,47 +1626,6 @@
             <a:effectLst/>
           </c:spPr>
         </c:marker>
-        <c:dLbl>
-          <c:idx val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-              <a:spAutoFit/>
-            </a:bodyPr>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="75000"/>
-                      <a:lumOff val="25000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-          </c:extLst>
-        </c:dLbl>
       </c:pivotFmt>
     </c:pivotFmts>
     <c:plotArea>
@@ -1747,15 +1637,7 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
-            <c:strRef>
-              <c:f>'Pivot Table'!$E$3</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Total</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+            <c:v>Total</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="28575" cap="rnd">
@@ -1783,103 +1665,87 @@
             </c:spPr>
           </c:marker>
           <c:cat>
-            <c:multiLvlStrRef>
-              <c:f>'Pivot Table'!$D$4:$D$18</c:f>
-              <c:multiLvlStrCache>
-                <c:ptCount val="12"/>
-                <c:lvl>
-                  <c:pt idx="0">
-                    <c:v>Apr</c:v>
-                  </c:pt>
-                  <c:pt idx="1">
-                    <c:v>May</c:v>
-                  </c:pt>
-                  <c:pt idx="2">
-                    <c:v>Jun</c:v>
-                  </c:pt>
-                  <c:pt idx="3">
-                    <c:v>Jul</c:v>
-                  </c:pt>
-                  <c:pt idx="4">
-                    <c:v>Aug</c:v>
-                  </c:pt>
-                  <c:pt idx="5">
-                    <c:v>Sep</c:v>
-                  </c:pt>
-                  <c:pt idx="6">
-                    <c:v>Oct</c:v>
-                  </c:pt>
-                  <c:pt idx="7">
-                    <c:v>Nov</c:v>
-                  </c:pt>
-                  <c:pt idx="8">
-                    <c:v>Dec</c:v>
-                  </c:pt>
-                  <c:pt idx="9">
-                    <c:v>Jan</c:v>
-                  </c:pt>
-                  <c:pt idx="10">
-                    <c:v>Feb</c:v>
-                  </c:pt>
-                  <c:pt idx="11">
-                    <c:v>Mar</c:v>
-                  </c:pt>
-                </c:lvl>
-                <c:lvl>
-                  <c:pt idx="0">
-                    <c:v>2022</c:v>
-                  </c:pt>
-                  <c:pt idx="9">
-                    <c:v>2023</c:v>
-                  </c:pt>
-                </c:lvl>
-              </c:multiLvlStrCache>
-            </c:multiLvlStrRef>
+            <c:strLit>
+              <c:ptCount val="12"/>
+              <c:pt idx="0">
+                <c:v>2022 Apr</c:v>
+              </c:pt>
+              <c:pt idx="1">
+                <c:v>2022 May</c:v>
+              </c:pt>
+              <c:pt idx="2">
+                <c:v>2022 Jun</c:v>
+              </c:pt>
+              <c:pt idx="3">
+                <c:v>2022 Jul</c:v>
+              </c:pt>
+              <c:pt idx="4">
+                <c:v>2022 Aug</c:v>
+              </c:pt>
+              <c:pt idx="5">
+                <c:v>2022 Sep</c:v>
+              </c:pt>
+              <c:pt idx="6">
+                <c:v>2022 Oct</c:v>
+              </c:pt>
+              <c:pt idx="7">
+                <c:v>2022 Nov</c:v>
+              </c:pt>
+              <c:pt idx="8">
+                <c:v>2022 Dec</c:v>
+              </c:pt>
+              <c:pt idx="9">
+                <c:v>2023 Jan</c:v>
+              </c:pt>
+              <c:pt idx="10">
+                <c:v>2023 Feb</c:v>
+              </c:pt>
+              <c:pt idx="11">
+                <c:v>2023 Mar</c:v>
+              </c:pt>
+            </c:strLit>
           </c:cat>
           <c:val>
-            <c:numRef>
-              <c:f>'Pivot Table'!$E$4:$E$18</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
-                <c:pt idx="0">
-                  <c:v>17670</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>26570</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>17335</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>19490</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>22305</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>18640</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>27205</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>22900</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>23460</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>28670</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>25595</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>25390</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
+            <c:numLit>
+              <c:formatCode>General</c:formatCode>
+              <c:ptCount val="12"/>
+              <c:pt idx="0">
+                <c:v>17670</c:v>
+              </c:pt>
+              <c:pt idx="1">
+                <c:v>26570</c:v>
+              </c:pt>
+              <c:pt idx="2">
+                <c:v>17335</c:v>
+              </c:pt>
+              <c:pt idx="3">
+                <c:v>19490</c:v>
+              </c:pt>
+              <c:pt idx="4">
+                <c:v>22305</c:v>
+              </c:pt>
+              <c:pt idx="5">
+                <c:v>18640</c:v>
+              </c:pt>
+              <c:pt idx="6">
+                <c:v>27205</c:v>
+              </c:pt>
+              <c:pt idx="7">
+                <c:v>22900</c:v>
+              </c:pt>
+              <c:pt idx="8">
+                <c:v>23460</c:v>
+              </c:pt>
+              <c:pt idx="9">
+                <c:v>28670</c:v>
+              </c:pt>
+              <c:pt idx="10">
+                <c:v>25595</c:v>
+              </c:pt>
+              <c:pt idx="11">
+                <c:v>25390</c:v>
+              </c:pt>
+            </c:numLit>
           </c:val>
           <c:smooth val="1"/>
           <c:extLst>
@@ -2012,6 +1878,7 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
     <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
@@ -2019,7 +1886,6 @@
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -2054,20 +1920,7 @@
     <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
     <c:pageSetup/>
   </c:printSettings>
-  <c:extLst>
-    <c:ext xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" uri="{781A3756-C4B2-4CAC-9D66-4F8BD8637D16}">
-      <c14:pivotOptions>
-        <c14:dropZoneFilter val="1"/>
-        <c14:dropZoneCategories val="1"/>
-        <c14:dropZoneData val="1"/>
-      </c14:pivotOptions>
-    </c:ext>
-    <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{E28EC0CA-F0BB-4C9C-879D-F8772B89E7AC}">
-      <c16:pivotOptions16>
-        <c16:showExpandCollapseFieldButtons val="1"/>
-      </c16:pivotOptions16>
-    </c:ext>
-  </c:extLst>
+  <c:extLst/>
 </c:chartSpace>
 </file>
 
@@ -2084,10 +1937,6 @@
       <c:style val="2"/>
     </mc:Fallback>
   </mc:AlternateContent>
-  <c:pivotSource>
-    <c:name>[Balaji Fast Food Sales2.xlsx]Pivot Table!PivotTable4</c:name>
-    <c:fmtId val="9"/>
-  </c:pivotSource>
   <c:chart>
     <c:title>
       <c:tx>
@@ -2117,6 +1966,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2782,7 +2632,9 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
           <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+              <c15:layout/>
+            </c:ext>
           </c:extLst>
         </c:dLbl>
       </c:pivotFmt>
@@ -2847,7 +2699,9 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
           <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+              <c15:layout/>
+            </c:ext>
           </c:extLst>
         </c:dLbl>
       </c:pivotFmt>
@@ -2912,7 +2766,9 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
           <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+              <c15:layout/>
+            </c:ext>
           </c:extLst>
         </c:dLbl>
       </c:pivotFmt>
@@ -2964,15 +2820,7 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
-            <c:strRef>
-              <c:f>'Pivot Table'!$H$3</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Total</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+            <c:v>Total</c:v>
           </c:tx>
           <c:dPt>
             <c:idx val="0"/>
@@ -3066,7 +2914,9 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000001-D940-4653-837A-07145BDD931C}"/>
                 </c:ext>
@@ -3088,7 +2938,9 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000003-D940-4653-837A-07145BDD931C}"/>
                 </c:ext>
@@ -3110,7 +2962,9 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000005-D940-4653-837A-07145BDD931C}"/>
                 </c:ext>
@@ -3170,39 +3024,33 @@
             </c:extLst>
           </c:dLbls>
           <c:cat>
-            <c:strRef>
-              <c:f>'Pivot Table'!$G$4:$G$7</c:f>
-              <c:strCache>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>Cash</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Credit</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Online</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+            <c:strLit>
+              <c:ptCount val="3"/>
+              <c:pt idx="0">
+                <c:v>Cash</c:v>
+              </c:pt>
+              <c:pt idx="1">
+                <c:v>Credit</c:v>
+              </c:pt>
+              <c:pt idx="2">
+                <c:v>Online</c:v>
+              </c:pt>
+            </c:strLit>
           </c:cat>
           <c:val>
-            <c:numRef>
-              <c:f>'Pivot Table'!$H$4:$H$7</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>132840</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>31795</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>110595</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
+            <c:numLit>
+              <c:formatCode>General</c:formatCode>
+              <c:ptCount val="3"/>
+              <c:pt idx="0">
+                <c:v>132840</c:v>
+              </c:pt>
+              <c:pt idx="1">
+                <c:v>31795</c:v>
+              </c:pt>
+              <c:pt idx="2">
+                <c:v>110595</c:v>
+              </c:pt>
+            </c:numLit>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -3268,6 +3116,7 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
     <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
@@ -3275,7 +3124,6 @@
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -3310,21 +3158,7 @@
     <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
     <c:pageSetup/>
   </c:printSettings>
-  <c:extLst>
-    <c:ext xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" uri="{781A3756-C4B2-4CAC-9D66-4F8BD8637D16}">
-      <c14:pivotOptions>
-        <c14:dropZoneFilter val="1"/>
-        <c14:dropZoneCategories val="1"/>
-        <c14:dropZoneData val="1"/>
-        <c14:dropZoneSeries val="1"/>
-      </c14:pivotOptions>
-    </c:ext>
-    <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{E28EC0CA-F0BB-4C9C-879D-F8772B89E7AC}">
-      <c16:pivotOptions16>
-        <c16:showExpandCollapseFieldButtons val="1"/>
-      </c16:pivotOptions16>
-    </c:ext>
-  </c:extLst>
+  <c:extLst/>
 </c:chartSpace>
 </file>
 
@@ -3341,10 +3175,6 @@
       <c:style val="2"/>
     </mc:Fallback>
   </mc:AlternateContent>
-  <c:pivotSource>
-    <c:name>[Balaji Fast Food Sales2.xlsx]Pivot Table!PivotTable5</c:name>
-    <c:fmtId val="3"/>
-  </c:pivotSource>
   <c:chart>
     <c:title>
       <c:tx>
@@ -3389,6 +3219,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3577,6 +3408,7 @@
         </c:marker>
         <c:dLbl>
           <c:idx val="0"/>
+          <c:layout/>
           <c:numFmt formatCode="&quot;₹&quot;\ #,##0" sourceLinked="0"/>
           <c:spPr>
             <a:noFill/>
@@ -3612,7 +3444,9 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
           <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+              <c15:layout/>
+            </c:ext>
           </c:extLst>
         </c:dLbl>
       </c:pivotFmt>
@@ -3644,6 +3478,34 @@
           <a:effectLst/>
         </c:spPr>
       </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="7"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="9525">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="8"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="9525">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+      </c:pivotFmt>
     </c:pivotFmts>
     <c:plotArea>
       <c:layout/>
@@ -3653,15 +3515,7 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
-            <c:strRef>
-              <c:f>'Pivot Table'!$K$3</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Total</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+            <c:v>Total</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="9525"/>
@@ -3758,37 +3612,33 @@
               </c:spPr>
             </c:leaderLines>
             <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+              </c:ext>
             </c:extLst>
           </c:dLbls>
           <c:cat>
-            <c:strRef>
-              <c:f>'Pivot Table'!$J$4:$J$6</c:f>
-              <c:strCache>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>Beverages</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Fastfood</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+            <c:strLit>
+              <c:ptCount val="2"/>
+              <c:pt idx="0">
+                <c:v>Beverages</c:v>
+              </c:pt>
+              <c:pt idx="1">
+                <c:v>Fastfood</c:v>
+              </c:pt>
+            </c:strLit>
           </c:cat>
           <c:val>
-            <c:numRef>
-              <c:f>'Pivot Table'!$K$4:$K$6</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>86390</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>188840</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
+            <c:numLit>
+              <c:formatCode>General</c:formatCode>
+              <c:ptCount val="2"/>
+              <c:pt idx="0">
+                <c:v>86390</c:v>
+              </c:pt>
+              <c:pt idx="1">
+                <c:v>188840</c:v>
+              </c:pt>
+            </c:numLit>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -3856,6 +3706,7 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
     <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
@@ -3863,7 +3714,6 @@
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -3898,21 +3748,7 @@
     <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
     <c:pageSetup/>
   </c:printSettings>
-  <c:extLst>
-    <c:ext xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" uri="{781A3756-C4B2-4CAC-9D66-4F8BD8637D16}">
-      <c14:pivotOptions>
-        <c14:dropZoneFilter val="1"/>
-        <c14:dropZoneCategories val="1"/>
-        <c14:dropZoneData val="1"/>
-        <c14:dropZoneSeries val="1"/>
-      </c14:pivotOptions>
-    </c:ext>
-    <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{E28EC0CA-F0BB-4C9C-879D-F8772B89E7AC}">
-      <c16:pivotOptions16>
-        <c16:showExpandCollapseFieldButtons val="1"/>
-      </c16:pivotOptions16>
-    </c:ext>
-  </c:extLst>
+  <c:extLst/>
 </c:chartSpace>
 </file>
 
@@ -3929,10 +3765,6 @@
       <c:style val="2"/>
     </mc:Fallback>
   </mc:AlternateContent>
-  <c:pivotSource>
-    <c:name>[Balaji Fast Food Sales2.xlsx]Pivot Table!PivotTable7</c:name>
-    <c:fmtId val="15"/>
-  </c:pivotSource>
   <c:chart>
     <c:title>
       <c:tx>
@@ -3962,6 +3794,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4184,47 +4017,6 @@
         <c:marker>
           <c:symbol val="none"/>
         </c:marker>
-        <c:dLbl>
-          <c:idx val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-              <a:spAutoFit/>
-            </a:bodyPr>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="75000"/>
-                      <a:lumOff val="25000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-          </c:extLst>
-        </c:dLbl>
       </c:pivotFmt>
       <c:pivotFmt>
         <c:idx val="8"/>
@@ -4341,15 +4133,7 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
-            <c:strRef>
-              <c:f>'Pivot Table'!$H$11</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Total</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+            <c:v>Total</c:v>
           </c:tx>
           <c:invertIfNegative val="0"/>
           <c:dPt>
@@ -4453,51 +4237,45 @@
             </c:extLst>
           </c:dPt>
           <c:cat>
-            <c:strRef>
-              <c:f>'Pivot Table'!$G$12:$G$17</c:f>
-              <c:strCache>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>Afternoon</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Evening</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Midnight</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Morning</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Night</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+            <c:strLit>
+              <c:ptCount val="5"/>
+              <c:pt idx="0">
+                <c:v>Afternoon</c:v>
+              </c:pt>
+              <c:pt idx="1">
+                <c:v>Evening</c:v>
+              </c:pt>
+              <c:pt idx="2">
+                <c:v>Midnight</c:v>
+              </c:pt>
+              <c:pt idx="3">
+                <c:v>Morning</c:v>
+              </c:pt>
+              <c:pt idx="4">
+                <c:v>Night</c:v>
+              </c:pt>
+            </c:strLit>
           </c:cat>
           <c:val>
-            <c:numRef>
-              <c:f>'Pivot Table'!$H$12:$H$17</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>56345</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>52355</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>50725</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>53730</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>62075</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
+            <c:numLit>
+              <c:formatCode>General</c:formatCode>
+              <c:ptCount val="5"/>
+              <c:pt idx="0">
+                <c:v>56345</c:v>
+              </c:pt>
+              <c:pt idx="1">
+                <c:v>52355</c:v>
+              </c:pt>
+              <c:pt idx="2">
+                <c:v>50725</c:v>
+              </c:pt>
+              <c:pt idx="3">
+                <c:v>53730</c:v>
+              </c:pt>
+              <c:pt idx="4">
+                <c:v>62075</c:v>
+              </c:pt>
+            </c:numLit>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -4624,6 +4402,7 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
     <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
@@ -4631,7 +4410,6 @@
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -4666,20 +4444,7 @@
     <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
     <c:pageSetup/>
   </c:printSettings>
-  <c:extLst>
-    <c:ext xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" uri="{781A3756-C4B2-4CAC-9D66-4F8BD8637D16}">
-      <c14:pivotOptions>
-        <c14:dropZoneFilter val="1"/>
-        <c14:dropZoneCategories val="1"/>
-        <c14:dropZoneData val="1"/>
-      </c14:pivotOptions>
-    </c:ext>
-    <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{E28EC0CA-F0BB-4C9C-879D-F8772B89E7AC}">
-      <c16:pivotOptions16>
-        <c16:showExpandCollapseFieldButtons val="1"/>
-      </c16:pivotOptions16>
-    </c:ext>
-  </c:extLst>
+  <c:extLst/>
 </c:chartSpace>
 </file>
 
@@ -4696,10 +4461,6 @@
       <c:style val="2"/>
     </mc:Fallback>
   </mc:AlternateContent>
-  <c:pivotSource>
-    <c:name>[Balaji Fast Food Sales2.xlsx]Pivot Table!PivotTable8</c:name>
-    <c:fmtId val="7"/>
-  </c:pivotSource>
   <c:chart>
     <c:title>
       <c:tx>
@@ -4729,6 +4490,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4938,47 +4700,6 @@
         <c:marker>
           <c:symbol val="none"/>
         </c:marker>
-        <c:dLbl>
-          <c:idx val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-              <a:spAutoFit/>
-            </a:bodyPr>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="75000"/>
-                      <a:lumOff val="25000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-          </c:extLst>
-        </c:dLbl>
       </c:pivotFmt>
       <c:pivotFmt>
         <c:idx val="7"/>
@@ -5082,15 +4803,7 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
-            <c:strRef>
-              <c:f>'Pivot Table'!$K$11</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Total</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+            <c:v>Total</c:v>
           </c:tx>
           <c:invertIfNegative val="0"/>
           <c:dPt>
@@ -5174,55 +4887,39 @@
             </c:extLst>
           </c:dPt>
           <c:cat>
-            <c:multiLvlStrRef>
-              <c:f>'Pivot Table'!$J$12:$J$18</c:f>
-              <c:multiLvlStrCache>
-                <c:ptCount val="4"/>
-                <c:lvl>
-                  <c:pt idx="0">
-                    <c:v>Beverages</c:v>
-                  </c:pt>
-                  <c:pt idx="1">
-                    <c:v>Fastfood</c:v>
-                  </c:pt>
-                  <c:pt idx="2">
-                    <c:v>Beverages</c:v>
-                  </c:pt>
-                  <c:pt idx="3">
-                    <c:v>Fastfood</c:v>
-                  </c:pt>
-                </c:lvl>
-                <c:lvl>
-                  <c:pt idx="0">
-                    <c:v>Female</c:v>
-                  </c:pt>
-                  <c:pt idx="2">
-                    <c:v>Male</c:v>
-                  </c:pt>
-                </c:lvl>
-              </c:multiLvlStrCache>
-            </c:multiLvlStrRef>
+            <c:strLit>
+              <c:ptCount val="4"/>
+              <c:pt idx="0">
+                <c:v>Female Beverages</c:v>
+              </c:pt>
+              <c:pt idx="1">
+                <c:v>Female Fastfood</c:v>
+              </c:pt>
+              <c:pt idx="2">
+                <c:v>Male Beverages</c:v>
+              </c:pt>
+              <c:pt idx="3">
+                <c:v>Male Fastfood</c:v>
+              </c:pt>
+            </c:strLit>
           </c:cat>
           <c:val>
-            <c:numRef>
-              <c:f>'Pivot Table'!$K$12:$K$18</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>44030</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>87760</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>42360</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>101080</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
+            <c:numLit>
+              <c:formatCode>General</c:formatCode>
+              <c:ptCount val="4"/>
+              <c:pt idx="0">
+                <c:v>44030</c:v>
+              </c:pt>
+              <c:pt idx="1">
+                <c:v>87760</c:v>
+              </c:pt>
+              <c:pt idx="2">
+                <c:v>42360</c:v>
+              </c:pt>
+              <c:pt idx="3">
+                <c:v>101080</c:v>
+              </c:pt>
+            </c:numLit>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -5349,6 +5046,7 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
     <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
@@ -5356,7 +5054,6 @@
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -5391,20 +5088,7 @@
     <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
     <c:pageSetup/>
   </c:printSettings>
-  <c:extLst>
-    <c:ext xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" uri="{781A3756-C4B2-4CAC-9D66-4F8BD8637D16}">
-      <c14:pivotOptions>
-        <c14:dropZoneFilter val="1"/>
-        <c14:dropZoneCategories val="1"/>
-        <c14:dropZoneData val="1"/>
-      </c14:pivotOptions>
-    </c:ext>
-    <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{E28EC0CA-F0BB-4C9C-879D-F8772B89E7AC}">
-      <c16:pivotOptions16>
-        <c16:showExpandCollapseFieldButtons val="1"/>
-      </c16:pivotOptions16>
-    </c:ext>
-  </c:extLst>
+  <c:extLst/>
 </c:chartSpace>
 </file>
 
@@ -5421,10 +5105,6 @@
       <c:style val="2"/>
     </mc:Fallback>
   </mc:AlternateContent>
-  <c:pivotSource>
-    <c:name>[Balaji Fast Food Sales2.xlsx]Pivot Table!PivotTable9</c:name>
-    <c:fmtId val="12"/>
-  </c:pivotSource>
   <c:chart>
     <c:title>
       <c:tx>
@@ -5471,6 +5151,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -5736,47 +5417,6 @@
         <c:marker>
           <c:symbol val="none"/>
         </c:marker>
-        <c:dLbl>
-          <c:idx val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-              <a:spAutoFit/>
-            </a:bodyPr>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="75000"/>
-                      <a:lumOff val="25000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-          </c:extLst>
-        </c:dLbl>
       </c:pivotFmt>
       <c:pivotFmt>
         <c:idx val="10"/>
@@ -5919,15 +5559,7 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
-            <c:strRef>
-              <c:f>'Pivot Table'!$B$3</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Total</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+            <c:v>Total</c:v>
           </c:tx>
           <c:invertIfNegative val="0"/>
           <c:dPt>
@@ -6073,63 +5705,57 @@
             </c:extLst>
           </c:dPt>
           <c:cat>
-            <c:strRef>
-              <c:f>'Pivot Table'!$A$4:$A$11</c:f>
-              <c:strCache>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>Aalopuri</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Cold coffee</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Frankie</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Panipuri</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Sandwich</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>Sugarcane juice</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>Vadapav</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+            <c:strLit>
+              <c:ptCount val="7"/>
+              <c:pt idx="0">
+                <c:v>Aalopuri</c:v>
+              </c:pt>
+              <c:pt idx="1">
+                <c:v>Cold coffee</c:v>
+              </c:pt>
+              <c:pt idx="2">
+                <c:v>Frankie</c:v>
+              </c:pt>
+              <c:pt idx="3">
+                <c:v>Panipuri</c:v>
+              </c:pt>
+              <c:pt idx="4">
+                <c:v>Sandwich</c:v>
+              </c:pt>
+              <c:pt idx="5">
+                <c:v>Sugarcane juice</c:v>
+              </c:pt>
+              <c:pt idx="6">
+                <c:v>Vadapav</c:v>
+              </c:pt>
+            </c:strLit>
           </c:cat>
           <c:val>
-            <c:numRef>
-              <c:f>'Pivot Table'!$B$4:$B$11</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>20880</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>54440</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>57500</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>24520</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>65820</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>31950</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>20120</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
+            <c:numLit>
+              <c:formatCode>General</c:formatCode>
+              <c:ptCount val="7"/>
+              <c:pt idx="0">
+                <c:v>20880</c:v>
+              </c:pt>
+              <c:pt idx="1">
+                <c:v>54440</c:v>
+              </c:pt>
+              <c:pt idx="2">
+                <c:v>57500</c:v>
+              </c:pt>
+              <c:pt idx="3">
+                <c:v>24520</c:v>
+              </c:pt>
+              <c:pt idx="4">
+                <c:v>65820</c:v>
+              </c:pt>
+              <c:pt idx="5">
+                <c:v>31950</c:v>
+              </c:pt>
+              <c:pt idx="6">
+                <c:v>20120</c:v>
+              </c:pt>
+            </c:numLit>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -6256,6 +5882,7 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
     <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
@@ -6263,7 +5890,6 @@
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -6298,20 +5924,7 @@
     <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
     <c:pageSetup/>
   </c:printSettings>
-  <c:extLst>
-    <c:ext xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" uri="{781A3756-C4B2-4CAC-9D66-4F8BD8637D16}">
-      <c14:pivotOptions>
-        <c14:dropZoneFilter val="1"/>
-        <c14:dropZoneCategories val="1"/>
-        <c14:dropZoneData val="1"/>
-      </c14:pivotOptions>
-    </c:ext>
-    <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{E28EC0CA-F0BB-4C9C-879D-F8772B89E7AC}">
-      <c16:pivotOptions16>
-        <c16:showExpandCollapseFieldButtons val="1"/>
-      </c16:pivotOptions16>
-    </c:ext>
-  </c:extLst>
+  <c:extLst/>
 </c:chartSpace>
 </file>
 
@@ -10263,8 +9876,8 @@
       <xdr:row>16</xdr:row>
       <xdr:rowOff>76201</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:graphicFrame macro="">
           <xdr:nvGraphicFramePr>
             <xdr:cNvPr id="29" name="Item Name 1">
@@ -10287,7 +9900,7 @@
           </a:graphic>
         </xdr:graphicFrame>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="0" name=""/>
@@ -10370,7 +9983,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Vikrant Karade" refreshedDate="45473.900145370368" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="1000" xr:uid="{01184AA4-B1D5-453E-A11C-8124C9F37ECC}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Vikrant Karade" refreshedDate="45473.900145370368" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="1000">
   <cacheSource type="worksheet">
     <worksheetSource name="Table1"/>
   </cacheSource>
@@ -26494,971 +26107,8 @@
 </pivotCacheRecords>
 </file>
 
-<file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{51B383F5-F8C1-43AA-8690-F24096E44C53}" name="PivotTable6" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="J8:J9" firstHeaderRow="1" firstDataRow="1" firstDataCol="0"/>
-  <pivotFields count="14">
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField numFmtId="14" showAll="0"/>
-    <pivotField showAll="0">
-      <items count="8">
-        <item x="0"/>
-        <item x="6"/>
-        <item x="4"/>
-        <item x="3"/>
-        <item x="5"/>
-        <item x="2"/>
-        <item x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-  </pivotFields>
-  <rowItems count="1">
-    <i/>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <dataFields count="1">
-    <dataField name="Sum of transaction_amount" fld="7" baseField="0" baseItem="0"/>
-  </dataFields>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{4376D0C0-684A-4982-BE6C-B3822B0F2327}" name="PivotTable5" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="11">
-  <location ref="J3:K6" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="14">
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField numFmtId="14" showAll="0"/>
-    <pivotField showAll="0">
-      <items count="8">
-        <item x="0"/>
-        <item x="6"/>
-        <item x="4"/>
-        <item x="3"/>
-        <item x="5"/>
-        <item x="2"/>
-        <item x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField axis="axisRow" showAll="0">
-      <items count="3">
-        <item x="1"/>
-        <item x="0"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0">
-      <items count="3">
-        <item x="1"/>
-        <item x="0"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="4"/>
-  </rowFields>
-  <rowItems count="3">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <dataFields count="1">
-    <dataField name="Sum of transaction_amount" fld="7" baseField="0" baseItem="0"/>
-  </dataFields>
-  <chartFormats count="2">
-    <chartFormat chart="3" format="4" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="7" format="0" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-  </chartFormats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{39174D48-BACA-4F37-806F-B0CCEFD1828A}" name="PivotTable9" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="13">
-  <location ref="A3:B11" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="14">
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField numFmtId="14" showAll="0"/>
-    <pivotField axis="axisRow" showAll="0">
-      <items count="8">
-        <item x="0"/>
-        <item x="6"/>
-        <item x="4"/>
-        <item x="3"/>
-        <item x="5"/>
-        <item x="2"/>
-        <item x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0" sortType="ascending">
-      <items count="3">
-        <item x="0"/>
-        <item x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0" sortType="ascending">
-      <items count="36">
-        <item x="10"/>
-        <item x="3"/>
-        <item x="11"/>
-        <item x="9"/>
-        <item m="1" x="21"/>
-        <item m="1" x="15"/>
-        <item m="1" x="22"/>
-        <item m="1" x="20"/>
-        <item x="5"/>
-        <item m="1" x="18"/>
-        <item x="7"/>
-        <item x="0"/>
-        <item x="1"/>
-        <item x="8"/>
-        <item x="4"/>
-        <item x="2"/>
-        <item x="6"/>
-        <item m="1" x="12"/>
-        <item m="1" x="13"/>
-        <item m="1" x="19"/>
-        <item m="1" x="16"/>
-        <item m="1" x="14"/>
-        <item m="1" x="17"/>
-        <item m="1" x="32"/>
-        <item m="1" x="24"/>
-        <item m="1" x="29"/>
-        <item m="1" x="26"/>
-        <item m="1" x="33"/>
-        <item m="1" x="23"/>
-        <item m="1" x="30"/>
-        <item m="1" x="34"/>
-        <item m="1" x="28"/>
-        <item m="1" x="25"/>
-        <item m="1" x="27"/>
-        <item m="1" x="31"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="3"/>
-  </rowFields>
-  <rowItems count="8">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="5"/>
-    </i>
-    <i>
-      <x v="6"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <dataFields count="1">
-    <dataField name="Sum of transaction_amount" fld="7" baseField="0" baseItem="0"/>
-  </dataFields>
-  <chartFormats count="9">
-    <chartFormat chart="5" format="0" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="12" format="9" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="12" format="10">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="3" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="12" format="11">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="3" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="12" format="12">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="3" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="12" format="13">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="3" count="1" selected="0">
-            <x v="3"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="12" format="14">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="3" count="1" selected="0">
-            <x v="4"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="12" format="15">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="3" count="1" selected="0">
-            <x v="5"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="12" format="16">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="3" count="1" selected="0">
-            <x v="6"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-  </chartFormats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{9FBD9B4B-0FF5-4DDD-AB83-C7C9043ED500}" name="PivotTable4" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="11">
-  <location ref="G3:H7" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="14">
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField numFmtId="14" showAll="0"/>
-    <pivotField showAll="0">
-      <items count="8">
-        <item x="0"/>
-        <item x="6"/>
-        <item x="4"/>
-        <item x="3"/>
-        <item x="5"/>
-        <item x="2"/>
-        <item x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField axis="axisRow" showAll="0">
-      <items count="4">
-        <item x="1"/>
-        <item x="0"/>
-        <item x="2"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="8"/>
-  </rowFields>
-  <rowItems count="4">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <dataFields count="1">
-    <dataField name="Sum of transaction_amount" fld="7" baseField="0" baseItem="0"/>
-  </dataFields>
-  <chartFormats count="4">
-    <chartFormat chart="9" format="8" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="9" format="9">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="8" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="9" format="10">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="8" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="9" format="11">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="8" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-  </chartFormats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable5.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{C63C4E64-446F-4D8D-8A47-50373D40E22B}" name="PivotTable8" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="9">
-  <location ref="J11:K18" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="14">
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField numFmtId="14" showAll="0"/>
-    <pivotField showAll="0">
-      <items count="8">
-        <item x="0"/>
-        <item x="6"/>
-        <item x="4"/>
-        <item x="3"/>
-        <item x="5"/>
-        <item x="2"/>
-        <item x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField axis="axisRow" showAll="0">
-      <items count="3">
-        <item x="1"/>
-        <item x="0"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisRow" showAll="0">
-      <items count="3">
-        <item x="1"/>
-        <item x="0"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-  </pivotFields>
-  <rowFields count="2">
-    <field x="10"/>
-    <field x="4"/>
-  </rowFields>
-  <rowItems count="7">
-    <i>
-      <x/>
-    </i>
-    <i r="1">
-      <x/>
-    </i>
-    <i r="1">
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i r="1">
-      <x/>
-    </i>
-    <i r="1">
-      <x v="1"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <dataFields count="1">
-    <dataField name="Sum of transaction_amount" fld="7" baseField="0" baseItem="0"/>
-  </dataFields>
-  <chartFormats count="5">
-    <chartFormat chart="7" format="6" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="7" format="7">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="3">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="4" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="10" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="7" format="8">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="3">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="4" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-          <reference field="10" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="7" format="9">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="3">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="4" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="10" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="7" format="10">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="3">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="4" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-          <reference field="10" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-  </chartFormats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable6.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{F96BA57D-64C9-4C4E-A2C2-AADAA0B4BF90}" name="PivotTable2" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="5">
-  <location ref="D3:E18" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="14">
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField numFmtId="14" showAll="0"/>
-    <pivotField showAll="0">
-      <items count="8">
-        <item x="0"/>
-        <item x="6"/>
-        <item x="4"/>
-        <item x="3"/>
-        <item x="5"/>
-        <item x="2"/>
-        <item x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisRow" showAll="0" sortType="ascending">
-      <items count="3">
-        <item x="0"/>
-        <item x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField axis="axisRow" showAll="0" sortType="ascending">
-      <items count="36">
-        <item x="10"/>
-        <item x="3"/>
-        <item x="11"/>
-        <item x="9"/>
-        <item m="1" x="21"/>
-        <item m="1" x="15"/>
-        <item m="1" x="22"/>
-        <item m="1" x="20"/>
-        <item x="5"/>
-        <item m="1" x="18"/>
-        <item x="7"/>
-        <item x="0"/>
-        <item x="1"/>
-        <item x="8"/>
-        <item x="4"/>
-        <item x="2"/>
-        <item x="6"/>
-        <item m="1" x="12"/>
-        <item m="1" x="13"/>
-        <item m="1" x="19"/>
-        <item m="1" x="16"/>
-        <item m="1" x="14"/>
-        <item m="1" x="17"/>
-        <item m="1" x="32"/>
-        <item m="1" x="24"/>
-        <item m="1" x="29"/>
-        <item m="1" x="26"/>
-        <item m="1" x="33"/>
-        <item m="1" x="23"/>
-        <item m="1" x="30"/>
-        <item m="1" x="34"/>
-        <item m="1" x="28"/>
-        <item m="1" x="25"/>
-        <item m="1" x="27"/>
-        <item m="1" x="31"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-  </pivotFields>
-  <rowFields count="2">
-    <field x="12"/>
-    <field x="13"/>
-  </rowFields>
-  <rowItems count="15">
-    <i>
-      <x/>
-    </i>
-    <i r="1">
-      <x v="3"/>
-    </i>
-    <i r="1">
-      <x v="8"/>
-    </i>
-    <i r="1">
-      <x v="10"/>
-    </i>
-    <i r="1">
-      <x v="11"/>
-    </i>
-    <i r="1">
-      <x v="12"/>
-    </i>
-    <i r="1">
-      <x v="13"/>
-    </i>
-    <i r="1">
-      <x v="14"/>
-    </i>
-    <i r="1">
-      <x v="15"/>
-    </i>
-    <i r="1">
-      <x v="16"/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i r="1">
-      <x/>
-    </i>
-    <i r="1">
-      <x v="1"/>
-    </i>
-    <i r="1">
-      <x v="2"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <dataFields count="1">
-    <dataField name="Sum of transaction_amount" fld="7" baseField="0" baseItem="0"/>
-  </dataFields>
-  <chartFormats count="1">
-    <chartFormat chart="3" format="3" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-  </chartFormats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable7.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{0C7D145A-F83B-42F6-9E11-3F0E5EF4D486}" name="PivotTable7" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="17">
-  <location ref="G11:H17" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="14">
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField numFmtId="14" showAll="0"/>
-    <pivotField showAll="0">
-      <items count="8">
-        <item x="0"/>
-        <item x="6"/>
-        <item x="4"/>
-        <item x="3"/>
-        <item x="5"/>
-        <item x="2"/>
-        <item x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisRow" showAll="0">
-      <items count="6">
-        <item x="1"/>
-        <item x="2"/>
-        <item x="4"/>
-        <item x="3"/>
-        <item x="0"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="11"/>
-  </rowFields>
-  <rowItems count="6">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="4"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <dataFields count="1">
-    <dataField name="Sum of transaction_amount" fld="7" baseField="0" baseItem="0"/>
-  </dataFields>
-  <chartFormats count="6">
-    <chartFormat chart="15" format="7" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="15" format="8">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="11" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="15" format="9">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="11" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="15" format="10">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="11" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="15" format="11">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="11" count="1" selected="0">
-            <x v="3"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="15" format="12">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="11" count="1" selected="0">
-            <x v="4"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-  </chartFormats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
 <file path=xl/slicerCaches/slicerCache1.xml><?xml version="1.0" encoding="utf-8"?>
-<slicerCacheDefinition xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x xr10" name="Slicer_Item_Name" xr10:uid="{73452F60-41B6-4B56-A2C1-C6A2BC9639DD}" sourceName="Item Name">
-  <pivotTables>
-    <pivotTable tabId="2" name="PivotTable9"/>
-    <pivotTable tabId="2" name="PivotTable2"/>
-    <pivotTable tabId="2" name="PivotTable4"/>
-    <pivotTable tabId="2" name="PivotTable5"/>
-    <pivotTable tabId="2" name="PivotTable6"/>
-    <pivotTable tabId="2" name="PivotTable7"/>
-    <pivotTable tabId="2" name="PivotTable8"/>
-  </pivotTables>
+<slicerCacheDefinition xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x" name="Slicer_Item_Name" sourceName="Item Name">
   <data>
     <tabular pivotCacheId="376297527">
       <items count="7">
@@ -27476,33 +26126,33 @@
 </file>
 
 <file path=xl/slicers/slicer1.xml><?xml version="1.0" encoding="utf-8"?>
-<slicers xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x xr10">
-  <slicer name="Item Name 1" xr10:uid="{61AD69F4-6E47-4C2F-A02D-24D9C577AE07}" cache="Slicer_Item_Name" caption="Item Name" rowHeight="234950"/>
+<slicers xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x">
+  <slicer name="Item Name 1" cache="Slicer_Item_Name" caption="Item Name" rowHeight="234950"/>
 </slicers>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{56908A08-A756-43FF-B46E-C350CD88D508}" name="Table1" displayName="Table1" ref="A1:N1001" totalsRowShown="0">
-  <autoFilter ref="A1:N1001" xr:uid="{56908A08-A756-43FF-B46E-C350CD88D508}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:N1001" totalsRowShown="0">
+  <autoFilter ref="A1:N1001"/>
   <tableColumns count="14">
-    <tableColumn id="1" xr3:uid="{8196A4BA-F5D2-44E2-A890-A1D782193EBE}" name="order_id"/>
-    <tableColumn id="2" xr3:uid="{E69B9F53-A49D-4E79-8275-891FF6794C7D}" name="date"/>
-    <tableColumn id="3" xr3:uid="{C4FDF542-4BA6-4232-9BDE-A8A02BEA53C8}" name="date_Corrected" dataDxfId="2"/>
-    <tableColumn id="4" xr3:uid="{DCC09B33-F705-4E92-8C11-E9E7508C6011}" name="Item Name"/>
-    <tableColumn id="5" xr3:uid="{D83F68D0-2590-4F05-A368-75C2BD45561A}" name="item_type"/>
-    <tableColumn id="6" xr3:uid="{C8AD5F18-9C95-4809-A529-0A182224743C}" name="item_price"/>
-    <tableColumn id="7" xr3:uid="{950763EF-D921-4F8C-B154-7485C585CA8F}" name="quantity"/>
-    <tableColumn id="8" xr3:uid="{7AC4E7F9-C131-4B61-8A9B-B0B8031DF7F7}" name="transaction_amount"/>
-    <tableColumn id="9" xr3:uid="{3F2FE832-E2E7-4FD7-8C86-359223BC9B0C}" name="transaction_type"/>
-    <tableColumn id="10" xr3:uid="{4B28C60D-48E9-440A-A948-E36BE29C4AA4}" name="received_by"/>
-    <tableColumn id="11" xr3:uid="{6636D196-F5A5-4745-A795-13066418CC51}" name="Gender">
+    <tableColumn id="1" name="order_id"/>
+    <tableColumn id="2" name="date"/>
+    <tableColumn id="3" name="date_Corrected" dataDxfId="2"/>
+    <tableColumn id="4" name="Item Name"/>
+    <tableColumn id="5" name="item_type"/>
+    <tableColumn id="6" name="item_price"/>
+    <tableColumn id="7" name="quantity"/>
+    <tableColumn id="8" name="transaction_amount"/>
+    <tableColumn id="9" name="transaction_type"/>
+    <tableColumn id="10" name="received_by"/>
+    <tableColumn id="11" name="Gender">
       <calculatedColumnFormula>IF(J2="Mr.","Male","Female")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="12" xr3:uid="{FFFB6593-1AB0-4A27-936D-5183DA9BB3F3}" name="time_of_sale"/>
-    <tableColumn id="14" xr3:uid="{CCAF0B84-15CD-4970-A82C-CB26FFBBFCDF}" name="Year" dataDxfId="1">
+    <tableColumn id="12" name="time_of_sale"/>
+    <tableColumn id="14" name="Year" dataDxfId="1">
       <calculatedColumnFormula>TEXT(C2, "yyyy")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="13" xr3:uid="{C98C2444-72D3-4DFF-BA89-BC8482C0B8CE}" name="Month" dataDxfId="0">
+    <tableColumn id="13" name="Month" dataDxfId="0">
       <calculatedColumnFormula>TEXT(C2, "mmm")</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -27806,95 +26456,95 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6DCBE748-40A5-4A11-8939-AD298DBF7F2E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X3"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="V24" sqref="V24"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="16384" width="8.88671875" style="5"/>
+    <col min="1" max="16384" width="8.88671875" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A1" s="7"/>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
-      <c r="H1" s="7"/>
-      <c r="I1" s="7"/>
-      <c r="J1" s="7"/>
-      <c r="K1" s="7"/>
-      <c r="L1" s="7"/>
-      <c r="M1" s="7"/>
-      <c r="N1" s="7"/>
-      <c r="O1" s="7"/>
-      <c r="P1" s="7"/>
-      <c r="Q1" s="7"/>
-      <c r="R1" s="7"/>
-      <c r="S1" s="7"/>
-      <c r="T1" s="7"/>
-      <c r="U1" s="7"/>
-      <c r="V1" s="7"/>
-      <c r="W1" s="7"/>
-      <c r="X1" s="7"/>
+      <c r="A1" s="3"/>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
+      <c r="K1" s="3"/>
+      <c r="L1" s="3"/>
+      <c r="M1" s="3"/>
+      <c r="N1" s="3"/>
+      <c r="O1" s="3"/>
+      <c r="P1" s="3"/>
+      <c r="Q1" s="3"/>
+      <c r="R1" s="3"/>
+      <c r="S1" s="3"/>
+      <c r="T1" s="3"/>
+      <c r="U1" s="3"/>
+      <c r="V1" s="3"/>
+      <c r="W1" s="3"/>
+      <c r="X1" s="3"/>
     </row>
     <row r="2" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A2" s="7"/>
-      <c r="B2" s="7"/>
-      <c r="C2" s="7"/>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
-      <c r="G2" s="7"/>
-      <c r="H2" s="7"/>
-      <c r="I2" s="7"/>
-      <c r="J2" s="7"/>
-      <c r="K2" s="7"/>
-      <c r="L2" s="7"/>
-      <c r="M2" s="7"/>
-      <c r="N2" s="7"/>
-      <c r="O2" s="7"/>
-      <c r="P2" s="7"/>
-      <c r="Q2" s="7"/>
-      <c r="R2" s="7"/>
-      <c r="S2" s="7"/>
-      <c r="T2" s="7"/>
-      <c r="U2" s="7"/>
-      <c r="V2" s="7"/>
-      <c r="W2" s="7"/>
-      <c r="X2" s="7"/>
+      <c r="A2" s="3"/>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+      <c r="J2" s="3"/>
+      <c r="K2" s="3"/>
+      <c r="L2" s="3"/>
+      <c r="M2" s="3"/>
+      <c r="N2" s="3"/>
+      <c r="O2" s="3"/>
+      <c r="P2" s="3"/>
+      <c r="Q2" s="3"/>
+      <c r="R2" s="3"/>
+      <c r="S2" s="3"/>
+      <c r="T2" s="3"/>
+      <c r="U2" s="3"/>
+      <c r="V2" s="3"/>
+      <c r="W2" s="3"/>
+      <c r="X2" s="3"/>
     </row>
     <row r="3" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A3" s="7"/>
-      <c r="B3" s="7"/>
-      <c r="C3" s="7"/>
-      <c r="D3" s="7"/>
-      <c r="E3" s="7"/>
-      <c r="F3" s="7"/>
-      <c r="G3" s="7"/>
-      <c r="H3" s="7"/>
-      <c r="I3" s="7"/>
-      <c r="J3" s="7"/>
-      <c r="K3" s="7"/>
-      <c r="L3" s="7"/>
-      <c r="M3" s="7"/>
-      <c r="N3" s="7"/>
-      <c r="O3" s="7"/>
-      <c r="P3" s="7"/>
-      <c r="Q3" s="7"/>
-      <c r="R3" s="7"/>
-      <c r="S3" s="7"/>
-      <c r="T3" s="7"/>
-      <c r="U3" s="7"/>
-      <c r="V3" s="7"/>
-      <c r="W3" s="7"/>
-      <c r="X3" s="7"/>
+      <c r="A3" s="3"/>
+      <c r="B3" s="3"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
+      <c r="H3" s="3"/>
+      <c r="I3" s="3"/>
+      <c r="J3" s="3"/>
+      <c r="K3" s="3"/>
+      <c r="L3" s="3"/>
+      <c r="M3" s="3"/>
+      <c r="N3" s="3"/>
+      <c r="O3" s="3"/>
+      <c r="P3" s="3"/>
+      <c r="Q3" s="3"/>
+      <c r="R3" s="3"/>
+      <c r="S3" s="3"/>
+      <c r="T3" s="3"/>
+      <c r="U3" s="3"/>
+      <c r="V3" s="3"/>
+      <c r="W3" s="3"/>
+      <c r="X3" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -27910,368 +26560,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0132F6AC-0833-4171-A3D1-E07765245260}">
-  <dimension ref="A3:K18"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I25" sqref="I25"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.5546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="24.88671875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.5546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="24.88671875" customWidth="1"/>
-    <col min="10" max="10" width="12.5546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="24.88671875" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A3" s="2" t="s">
-        <v>242</v>
-      </c>
-      <c r="B3" t="s">
-        <v>244</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>242</v>
-      </c>
-      <c r="E3" t="s">
-        <v>244</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>242</v>
-      </c>
-      <c r="H3" t="s">
-        <v>244</v>
-      </c>
-      <c r="J3" s="2" t="s">
-        <v>242</v>
-      </c>
-      <c r="K3" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A4" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" s="6">
-        <v>20880</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>248</v>
-      </c>
-      <c r="E4" s="6">
-        <v>195575</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="H4" s="6">
-        <v>132840</v>
-      </c>
-      <c r="J4" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="K4" s="6">
-        <v>86390</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A5" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="B5" s="6">
-        <v>54440</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>258</v>
-      </c>
-      <c r="E5" s="6">
-        <v>17670</v>
-      </c>
-      <c r="G5" s="3" t="s">
-        <v>240</v>
-      </c>
-      <c r="H5" s="6">
-        <v>31795</v>
-      </c>
-      <c r="J5" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="K5" s="6">
-        <v>188840</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A6" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="B6" s="6">
-        <v>57500</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>245</v>
-      </c>
-      <c r="E6" s="6">
-        <v>26570</v>
-      </c>
-      <c r="G6" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="H6" s="6">
-        <v>110595</v>
-      </c>
-      <c r="J6" s="3" t="s">
-        <v>243</v>
-      </c>
-      <c r="K6" s="6">
-        <v>275230</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A7" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="B7" s="6">
-        <v>24520</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>256</v>
-      </c>
-      <c r="E7" s="6">
-        <v>17335</v>
-      </c>
-      <c r="G7" s="3" t="s">
-        <v>243</v>
-      </c>
-      <c r="H7" s="6">
-        <v>275230</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A8" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="B8" s="6">
-        <v>65820</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>251</v>
-      </c>
-      <c r="E8" s="6">
-        <v>19490</v>
-      </c>
-      <c r="J8" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A9" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B9" s="6">
-        <v>31950</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>252</v>
-      </c>
-      <c r="E9" s="6">
-        <v>22305</v>
-      </c>
-      <c r="J9" s="6">
-        <v>275230</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A10" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B10" s="6">
-        <v>20120</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>257</v>
-      </c>
-      <c r="E10" s="6">
-        <v>18640</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A11" s="3" t="s">
-        <v>243</v>
-      </c>
-      <c r="B11" s="6">
-        <v>275230</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>254</v>
-      </c>
-      <c r="E11" s="6">
-        <v>27205</v>
-      </c>
-      <c r="G11" s="2" t="s">
-        <v>242</v>
-      </c>
-      <c r="H11" t="s">
-        <v>244</v>
-      </c>
-      <c r="J11" s="2" t="s">
-        <v>242</v>
-      </c>
-      <c r="K11" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="D12" s="4" t="s">
-        <v>253</v>
-      </c>
-      <c r="E12" s="6">
-        <v>22900</v>
-      </c>
-      <c r="G12" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="H12" s="6">
-        <v>56345</v>
-      </c>
-      <c r="J12" s="3" t="s">
-        <v>249</v>
-      </c>
-      <c r="K12" s="6">
-        <v>131790</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="D13" s="4" t="s">
-        <v>255</v>
-      </c>
-      <c r="E13" s="6">
-        <v>23460</v>
-      </c>
-      <c r="G13" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="H13" s="6">
-        <v>52355</v>
-      </c>
-      <c r="J13" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="K13" s="6">
-        <v>44030</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="D14" s="3" t="s">
-        <v>247</v>
-      </c>
-      <c r="E14" s="6">
-        <v>79655</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="H14" s="6">
-        <v>50725</v>
-      </c>
-      <c r="J14" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="K14" s="6">
-        <v>87760</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="D15" s="4" t="s">
-        <v>260</v>
-      </c>
-      <c r="E15" s="6">
-        <v>28670</v>
-      </c>
-      <c r="G15" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="H15" s="6">
-        <v>53730</v>
-      </c>
-      <c r="J15" s="3" t="s">
-        <v>250</v>
-      </c>
-      <c r="K15" s="6">
-        <v>143440</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="D16" s="4" t="s">
-        <v>259</v>
-      </c>
-      <c r="E16" s="6">
-        <v>25595</v>
-      </c>
-      <c r="G16" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="H16" s="6">
-        <v>62075</v>
-      </c>
-      <c r="J16" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="K16" s="6">
-        <v>42360</v>
-      </c>
-    </row>
-    <row r="17" spans="4:11" x14ac:dyDescent="0.3">
-      <c r="D17" s="4" t="s">
-        <v>261</v>
-      </c>
-      <c r="E17" s="6">
-        <v>25390</v>
-      </c>
-      <c r="G17" s="3" t="s">
-        <v>243</v>
-      </c>
-      <c r="H17" s="6">
-        <v>275230</v>
-      </c>
-      <c r="J17" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="K17" s="6">
-        <v>101080</v>
-      </c>
-    </row>
-    <row r="18" spans="4:11" x14ac:dyDescent="0.3">
-      <c r="D18" s="3" t="s">
-        <v>243</v>
-      </c>
-      <c r="E18" s="6">
-        <v>275230</v>
-      </c>
-      <c r="J18" s="3" t="s">
-        <v>243</v>
-      </c>
-      <c r="K18" s="6">
-        <v>275230</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6999906F-F912-4E79-862B-B5D0F74E40DF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N1001"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -28302,7 +26595,7 @@
         <v>239</v>
       </c>
       <c r="D1" t="s">
-        <v>262</v>
+        <v>243</v>
       </c>
       <c r="E1" t="s">
         <v>2</v>
@@ -28329,7 +26622,7 @@
         <v>8</v>
       </c>
       <c r="M1" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="N1" t="s">
         <v>238</v>
